--- a/work_time_log.xlsx
+++ b/work_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shuaiwang/Documents/2022/Search_Excel_Demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098C9C7B-0104-0A45-82A7-ACFBE3D06B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6D8CD3-09C1-B64B-80CC-82738A9220E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="2000" windowWidth="27640" windowHeight="16940" xr2:uid="{F1C215AD-117D-E340-A4EC-8C5E914D94BD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Content</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>website UI design</t>
+  </si>
+  <si>
+    <t>MySQL install and solve connect problem(Authentication plugin 'caching_sha2_password' is not supported)</t>
+  </si>
+  <si>
+    <t>import Excel to database by Python</t>
   </si>
 </sst>
 </file>
@@ -87,9 +93,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,61 +415,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85437E67-D083-D143-8800-0E0EB21C8F1F}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="34.83203125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>44698</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>44698</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="1"/>
+    <row r="4" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>44699</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/work_time_log.xlsx
+++ b/work_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shuaiwang/Documents/2022/Search_Excel_Demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6D8CD3-09C1-B64B-80CC-82738A9220E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B29F2D-14CC-CA4C-8A83-A794C7E86091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="2000" windowWidth="27640" windowHeight="16940" xr2:uid="{F1C215AD-117D-E340-A4EC-8C5E914D94BD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Content</t>
   </si>
@@ -57,7 +57,14 @@
     <t>MySQL install and solve connect problem(Authentication plugin 'caching_sha2_password' is not supported)</t>
   </si>
   <si>
-    <t>import Excel to database by Python</t>
+    <t>import Excel to database by Python, tradition way by SQL language</t>
+  </si>
+  <si>
+    <t>Choose backend framework, Django VS Flask. Django is my choose, the reason is that both frameworks are new to me, but Django looks more mature platform. Django is similar to my previous enterprise development platform.</t>
+  </si>
+  <si>
+    <t>Two ways read and write data to mysql.
+df.to_sql is easier than mysql.connector. Later I will choose Pandas read and write on MySQL</t>
   </si>
 </sst>
 </file>
@@ -96,10 +103,10 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -415,16 +422,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85437E67-D083-D143-8800-0E0EB21C8F1F}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="34.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="10.83203125" style="2"/>
+    <col min="3" max="3" width="49.1640625" style="1" customWidth="1"/>
     <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -432,7 +443,7 @@
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -470,7 +481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -484,7 +495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -493,6 +504,37 @@
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>44700</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>44700</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/work_time_log.xlsx
+++ b/work_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shuaiwang/Documents/2022/Search_Excel_Demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B29F2D-14CC-CA4C-8A83-A794C7E86091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FDD57E-C7D8-F84D-A2FF-FF27262ABB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="2000" windowWidth="27640" windowHeight="16940" xr2:uid="{F1C215AD-117D-E340-A4EC-8C5E914D94BD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Content</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>website UI design</t>
-  </si>
-  <si>
-    <t>MySQL install and solve connect problem(Authentication plugin 'caching_sha2_password' is not supported)</t>
   </si>
   <si>
     <t>import Excel to database by Python, tradition way by SQL language</t>
@@ -65,6 +62,26 @@
   <si>
     <t>Two ways read and write data to mysql.
 df.to_sql is easier than mysql.connector. Later I will choose Pandas read and write on MySQL</t>
+  </si>
+  <si>
+    <t>inseresting thing</t>
+  </si>
+  <si>
+    <t>MySQL install and solve connect problem</t>
+  </si>
+  <si>
+    <t>Problem: Authentication plugin 'caching_sha2_password' is not supported
+Solution: new user by normal passwork</t>
+  </si>
+  <si>
+    <t>Problem: MySQL stop work in my Mac, fix by restart it
+Solution: sudo /usr/local/mysql/support-files/mysql.server start/stop/restart</t>
+  </si>
+  <si>
+    <t>mysql.connector has to use specific version to connect.</t>
+  </si>
+  <si>
+    <t>Next day plan is try to run Django in my Mac for fun.</t>
   </si>
 </sst>
 </file>
@@ -422,13 +439,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85437E67-D083-D143-8800-0E0EB21C8F1F}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -436,10 +453,12 @@
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="10.83203125" style="2"/>
     <col min="3" max="3" width="49.1640625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="38.5" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -452,8 +471,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -467,7 +489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -481,7 +503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -489,13 +511,16 @@
         <v>44699</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -503,13 +528,16 @@
         <v>44699</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -517,13 +545,16 @@
         <v>44700</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -531,10 +562,13 @@
         <v>44700</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="1">
         <v>0.5</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/work_time_log.xlsx
+++ b/work_time_log.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shuaiwang/Documents/2022/Search_Excel_Demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FDD57E-C7D8-F84D-A2FF-FF27262ABB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B69D3BF-8CCC-2049-A141-CC7BE6F1A9FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2000" windowWidth="27640" windowHeight="16940" xr2:uid="{F1C215AD-117D-E340-A4EC-8C5E914D94BD}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19460" xr2:uid="{F1C215AD-117D-E340-A4EC-8C5E914D94BD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="log" sheetId="1" r:id="rId1"/>
+    <sheet name="website design and explaination" sheetId="2" r:id="rId2"/>
+    <sheet name="Search parameters explaination" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,15 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="89">
   <si>
     <t>Content</t>
   </si>
   <si>
     <t>index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">analysis/read data file </t>
   </si>
   <si>
     <t>time(h)</t>
@@ -64,12 +63,6 @@
 df.to_sql is easier than mysql.connector. Later I will choose Pandas read and write on MySQL</t>
   </si>
   <si>
-    <t>inseresting thing</t>
-  </si>
-  <si>
-    <t>MySQL install and solve connect problem</t>
-  </si>
-  <si>
     <t>Problem: Authentication plugin 'caching_sha2_password' is not supported
 Solution: new user by normal passwork</t>
   </si>
@@ -82,13 +75,245 @@
   </si>
   <si>
     <t>Next day plan is try to run Django in my Mac for fun.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Django tutorial, Django website and Youtobe explaination </t>
+  </si>
+  <si>
+    <t>analysis/read data file by Python</t>
+  </si>
+  <si>
+    <t>Mac MySQL install and solve connect problem</t>
+  </si>
+  <si>
+    <t>Continue explore Django, connect Mysql and extrect data to show in website</t>
+  </si>
+  <si>
+    <t>Django is MTV : URL=&gt;view.py=&gt;Models(DB)=&gt;view.py=&gt;Template(HTML). It is little different with MVC. View in MTV is similar with Controller in MVC, but View in MTV looks combine  backend and frontend closer.</t>
+  </si>
+  <si>
+    <t>interesting thing</t>
+  </si>
+  <si>
+    <t>Figure out how to use Django to split pages</t>
+  </si>
+  <si>
+    <t>Search by parameters, send data to cack end and return search data</t>
+  </si>
+  <si>
+    <t>Meet a problem, the parameters are too long, change design from show in right side for detail information to jump new web page.</t>
+  </si>
+  <si>
+    <t>BillNO</t>
+  </si>
+  <si>
+    <t>4Digit</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>HSCode</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Item_Rate_INV</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Total_Amount_INV_FC</t>
+  </si>
+  <si>
+    <t>FOB INR</t>
+  </si>
+  <si>
+    <t>ForeignPort</t>
+  </si>
+  <si>
+    <t>ForeignCountry</t>
+  </si>
+  <si>
+    <t>IndianPort</t>
+  </si>
+  <si>
+    <t>IEC</t>
+  </si>
+  <si>
+    <t>IndianCompany</t>
+  </si>
+  <si>
+    <t>Address1</t>
+  </si>
+  <si>
+    <t>Address2</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>ForeignCompany</t>
+  </si>
+  <si>
+    <t>Invoice_No</t>
+  </si>
+  <si>
+    <t>CUSH</t>
+  </si>
+  <si>
+    <t>IEC_PIN</t>
+  </si>
+  <si>
+    <t>Item_No</t>
+  </si>
+  <si>
+    <t>Item_Rate_INR</t>
+  </si>
+  <si>
+    <t>ETHYLENE GLYCOL DISTERATE (Assay 98% minimum) (EGDS)</t>
+  </si>
+  <si>
+    <t>KGS</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>Chittagong</t>
+  </si>
+  <si>
+    <t>BANGLADESH</t>
+  </si>
+  <si>
+    <t>Nhava Sheva Sea</t>
+  </si>
+  <si>
+    <t>GALAXY SURFACTANTS LTD.,</t>
+  </si>
+  <si>
+    <t>C-49/2,TTC INDUSTRIAL AREAPAWNE,  NAVI MUMBAI.</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>MAHARASHTRA</t>
+  </si>
+  <si>
+    <t>UNILEVER BANGLADESH LTD.</t>
+  </si>
+  <si>
+    <t>INNSA1</t>
+  </si>
+  <si>
+    <t>COSMOSIL IM</t>
+  </si>
+  <si>
+    <t>Colombo</t>
+  </si>
+  <si>
+    <t>SRI LANKA</t>
+  </si>
+  <si>
+    <t>DADIA CHEMICAL INDUSTRIES</t>
+  </si>
+  <si>
+    <t>201, SHIVAM , 3RD FLOOR,  SATYAM SHOPPING CENTRE,M.G. ROAD</t>
+  </si>
+  <si>
+    <t>GHATKOPAR (EAST), MUMBAI</t>
+  </si>
+  <si>
+    <t>HARUMI HOLDINGS (PVT) LTD,</t>
+  </si>
+  <si>
+    <t>DCI/EXP-03/16-17</t>
+  </si>
+  <si>
+    <t>PIN-400077</t>
+  </si>
+  <si>
+    <t>MEBEVERINE HCL BP</t>
+  </si>
+  <si>
+    <t>Riyadh</t>
+  </si>
+  <si>
+    <t>SAUDI ARABIA</t>
+  </si>
+  <si>
+    <t>Hyderabad Air Cargo</t>
+  </si>
+  <si>
+    <t>RA CHEM PHARMA LIMITED</t>
+  </si>
+  <si>
+    <t>#.6-3-1239/2, AMAR HOUSE, 4TH FLOORRAJBHAWAN ROAD, SOMAJIGUDA,</t>
+  </si>
+  <si>
+    <t>HYDERABAD, A.P.</t>
+  </si>
+  <si>
+    <t>MEDICAL &amp; COSMETIC PRODUCTS CO.LTD</t>
+  </si>
+  <si>
+    <t>EXP/A106/16-17</t>
+  </si>
+  <si>
+    <t>INHYD4</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Main serach input</t>
+  </si>
+  <si>
+    <t>Requirement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The main query box, while searching these three fields with a blur match in one input box
+</t>
+  </si>
+  <si>
+    <t>Multi-Criteria Search Box</t>
+  </si>
+  <si>
+    <t>LIKE, blur match</t>
+  </si>
+  <si>
+    <t>=,equal directly</t>
+  </si>
+  <si>
+    <t>The green background will show in search result, after cllick show all information list in detail, the reason is the parameters too long, the main search page can not show them in one screen. If use scroll bar, the user experience is not good.</t>
+  </si>
+  <si>
+    <t>Optimized advanced search parameters, make sure all search return right result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solution: django.core.paginator  </t>
+  </si>
+  <si>
+    <t>Use Bootstrap for optimizing fontend webpage</t>
+  </si>
+  <si>
+    <t>Choose fountend frame work, React, Angular. They are both new to me. Due to time limited for this case , quick decision choose Bootstrap, because I have used it a little before. The webpage is simple, it should be enough.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -96,16 +321,72 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -113,16 +394,128 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -439,40 +832,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85437E67-D083-D143-8800-0E0EB21C8F1F}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="10.83203125" style="2"/>
-    <col min="3" max="3" width="49.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="6" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="54.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="38.5" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -483,7 +876,7 @@
         <v>44698</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -497,7 +890,7 @@
         <v>44698</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -511,13 +904,13 @@
         <v>44699</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -528,13 +921,13 @@
         <v>44699</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1">
         <v>0.5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="68" x14ac:dyDescent="0.2">
@@ -545,13 +938,13 @@
         <v>44700</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="68" x14ac:dyDescent="0.2">
@@ -562,16 +955,603 @@
         <v>44700</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1">
         <v>0.5</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>44701</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>44701.779861111114</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>44702</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>44702</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>44703</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>44703</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>44703</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>44703</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5534C645-5B7E-A141-BDE3-3566112B0F0E}">
+  <dimension ref="A1:Y9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>8001439</v>
+      </c>
+      <c r="B2" s="6">
+        <v>2915</v>
+      </c>
+      <c r="C2" s="7">
+        <v>42522</v>
+      </c>
+      <c r="D2" s="6">
+        <v>29157090</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="6">
+        <v>2400</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="6">
+        <v>2.855</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="6">
+        <v>6852</v>
+      </c>
+      <c r="K2" s="6">
+        <v>435999.12</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="6">
+        <v>388162040</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="U2" s="6">
+        <v>80206964</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="W2" s="6">
+        <v>400703</v>
+      </c>
+      <c r="X2" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="6">
+        <v>181.66630000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>8021997</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2915</v>
+      </c>
+      <c r="C3" s="7">
+        <v>42522</v>
+      </c>
+      <c r="D3" s="6">
+        <v>29159090</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="6">
+        <v>2100</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="6">
+        <v>5.75</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="6">
+        <v>12075</v>
+      </c>
+      <c r="K3" s="6">
+        <v>814446.25</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" s="6">
+        <v>396073964</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="X3" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="6">
+        <v>387.83154760000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>8019786</v>
+      </c>
+      <c r="B4" s="6">
+        <v>2916</v>
+      </c>
+      <c r="C4" s="7">
+        <v>42522</v>
+      </c>
+      <c r="D4" s="6">
+        <v>29163190</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="6">
+        <v>750</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="6">
+        <v>85</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="6">
+        <v>63750</v>
+      </c>
+      <c r="K4" s="6">
+        <v>4134001.5</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" s="6">
+        <v>996000836</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="W4" s="6">
+        <v>500082</v>
+      </c>
+      <c r="X4" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>5512.0020000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A6:H9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238157F2-9A39-604B-9BD3-C76AC55E4F04}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView zoomScale="330" zoomScaleNormal="330" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="15"/>
+    </row>
+    <row r="4" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="16"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/work_time_log.xlsx
+++ b/work_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shuaiwang/Documents/2022/Search_Excel_Demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B69D3BF-8CCC-2049-A141-CC7BE6F1A9FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D16DC5-D136-C643-A8CF-B21A8C34C093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19460" xr2:uid="{F1C215AD-117D-E340-A4EC-8C5E914D94BD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="91">
   <si>
     <t>Content</t>
   </si>
@@ -71,9 +71,6 @@
 Solution: sudo /usr/local/mysql/support-files/mysql.server start/stop/restart</t>
   </si>
   <si>
-    <t>mysql.connector has to use specific version to connect.</t>
-  </si>
-  <si>
     <t>Next day plan is try to run Django in my Mac for fun.</t>
   </si>
   <si>
@@ -89,16 +86,10 @@
     <t>Continue explore Django, connect Mysql and extrect data to show in website</t>
   </si>
   <si>
-    <t>Django is MTV : URL=&gt;view.py=&gt;Models(DB)=&gt;view.py=&gt;Template(HTML). It is little different with MVC. View in MTV is similar with Controller in MVC, but View in MTV looks combine  backend and frontend closer.</t>
-  </si>
-  <si>
     <t>interesting thing</t>
   </si>
   <si>
     <t>Figure out how to use Django to split pages</t>
-  </si>
-  <si>
-    <t>Search by parameters, send data to cack end and return search data</t>
   </si>
   <si>
     <t>Meet a problem, the parameters are too long, change design from show in right side for detail information to jump new web page.</t>
@@ -307,6 +298,24 @@
   </si>
   <si>
     <t>Choose fountend frame work, React, Angular. They are both new to me. Due to time limited for this case , quick decision choose Bootstrap, because I have used it a little before. The webpage is simple, it should be enough.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mysql.connector has to use specific version to connect.
+Pandas.to_sql is easy to create table according data type 
+</t>
+  </si>
+  <si>
+    <t>finish log, recording video, write markdown</t>
+  </si>
+  <si>
+    <t>Test my code, find a bug, search error for filed BillNO, fix it on time.</t>
+  </si>
+  <si>
+    <t>Django is MTV : URL=&gt;view.py=&gt;Models(DB)=&gt;view.py=&gt;Template(HTML). It is little different with MVC. View in MTV is similar with Controller in MVC, but View in MTV looks combine backend and frontend closer.
+Auto generate Model file from database: python manage.py inspectdb</t>
+  </si>
+  <si>
+    <t>Search by parameters, send data to backend and return search data</t>
   </si>
 </sst>
 </file>
@@ -503,6 +512,12 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -511,12 +526,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -832,13 +841,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85437E67-D083-D143-8800-0E0EB21C8F1F}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -865,7 +874,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -876,7 +885,7 @@
         <v>44698</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -904,7 +913,7 @@
         <v>44699</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -913,7 +922,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -927,7 +936,7 @@
         <v>0.5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="68" x14ac:dyDescent="0.2">
@@ -961,7 +970,7 @@
         <v>0.5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -972,7 +981,7 @@
         <v>44701</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="1">
         <v>2</v>
@@ -986,13 +995,13 @@
         <v>44701.779861111114</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D9" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1000,13 +1009,13 @@
         <v>44702</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="1">
         <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1017,13 +1026,13 @@
         <v>44702</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -1034,13 +1043,13 @@
         <v>44703</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="D12" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1048,13 +1057,13 @@
         <v>44703</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1062,10 +1071,10 @@
         <v>44703</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="D14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -1076,10 +1085,27 @@
         <v>44703</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>44704</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1102,79 +1128,79 @@
   <sheetData>
     <row r="1" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="M1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="S1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="T1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="U1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="W1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="X1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="15" x14ac:dyDescent="0.2">
@@ -1191,19 +1217,19 @@
         <v>29157090</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F2" s="6">
         <v>2400</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H2" s="6">
         <v>2.855</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J2" s="6">
         <v>6852</v>
@@ -1212,37 +1238,37 @@
         <v>435999.12</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="O2" s="6">
         <v>388162040</v>
       </c>
       <c r="P2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="S2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="U2" s="6">
         <v>80206964</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="W2" s="6">
         <v>400703</v>
@@ -1268,19 +1294,19 @@
         <v>29159090</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F3" s="6">
         <v>2100</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H3" s="6">
         <v>5.75</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J3" s="6">
         <v>12075</v>
@@ -1289,40 +1315,40 @@
         <v>814446.25</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="O3" s="6">
         <v>396073964</v>
       </c>
       <c r="P3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="T3" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="U3" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="V3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="W3" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="W3" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="X3" s="6">
         <v>1</v>
@@ -1345,19 +1371,19 @@
         <v>29163190</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F4" s="6">
         <v>750</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H4" s="6">
         <v>85</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J4" s="6">
         <v>63750</v>
@@ -1366,37 +1392,37 @@
         <v>4134001.5</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O4" s="6">
         <v>996000836</v>
       </c>
       <c r="P4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="T4" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="U4" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="R4" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="S4" s="6" t="s">
+      <c r="V4" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="T4" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="U4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="V4" s="6" t="s">
-        <v>76</v>
       </c>
       <c r="W4" s="6">
         <v>500082</v>
@@ -1409,46 +1435,46 @@
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
+      <c r="A6" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1474,78 +1500,78 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>80</v>
+        <v>22</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="15"/>
+        <v>33</v>
+      </c>
+      <c r="B3" s="17"/>
     </row>
     <row r="4" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="16"/>
+        <v>37</v>
+      </c>
+      <c r="B4" s="18"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>83</v>
+        <v>18</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>83</v>
+        <v>19</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>83</v>
+        <v>21</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
